--- a/Jeu de données.xlsx
+++ b/Jeu de données.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Inventeur" sheetId="3" r:id="rId4"/>
     <sheet name="Onguent" sheetId="4" r:id="rId5"/>
     <sheet name="Potion" sheetId="5" r:id="rId6"/>
-    <sheet name="Recipient" sheetId="6" r:id="rId7"/>
+    <sheet name="Feuil1" sheetId="8" r:id="rId7"/>
+    <sheet name="Unite" sheetId="9" r:id="rId8"/>
+    <sheet name="Recipient" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
   <si>
     <t>ID_Client</t>
   </si>
@@ -498,6 +500,33 @@
   </si>
   <si>
     <t>Prix_Ingredient</t>
+  </si>
+  <si>
+    <t>Quantité_P_I</t>
+  </si>
+  <si>
+    <t>Unité_P_I</t>
+  </si>
+  <si>
+    <t>ID_Unite</t>
+  </si>
+  <si>
+    <t>Nom_Unite</t>
+  </si>
+  <si>
+    <t>Pincee</t>
+  </si>
+  <si>
+    <t>Soufle</t>
+  </si>
+  <si>
+    <t>Nuage</t>
+  </si>
+  <si>
+    <t>Poignee</t>
+  </si>
+  <si>
+    <t>Once</t>
   </si>
 </sst>
 </file>
@@ -539,8 +568,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -893,7 +950,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A13" si="0">1+A3</f>
+        <f t="shared" ref="A4:A6" si="0">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -936,7 +993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2753,7 +2812,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3692,6 +3751,119 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Jeu de données.xlsx
+++ b/Jeu de données.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId2"/>
+    <sheet name="Ingredient" sheetId="7" r:id="rId2"/>
     <sheet name="Fournisseur" sheetId="2" r:id="rId3"/>
     <sheet name="Inventeur" sheetId="3" r:id="rId4"/>
     <sheet name="Onguent" sheetId="4" r:id="rId5"/>
     <sheet name="Potion" sheetId="5" r:id="rId6"/>
-    <sheet name="Feuil1" sheetId="8" r:id="rId7"/>
-    <sheet name="Unite" sheetId="9" r:id="rId8"/>
-    <sheet name="Recipient" sheetId="6" r:id="rId9"/>
+    <sheet name="Diluant" sheetId="11" r:id="rId7"/>
+    <sheet name="Contient" sheetId="8" r:id="rId8"/>
+    <sheet name="Compose" sheetId="12" r:id="rId9"/>
+    <sheet name="Unite" sheetId="9" r:id="rId10"/>
+    <sheet name="Recipient" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="174">
   <si>
     <t>ID_Client</t>
   </si>
@@ -265,21 +267,9 @@
     <t>Nom_Potion</t>
   </si>
   <si>
-    <t>Vin</t>
-  </si>
-  <si>
-    <t>Jus de fruit</t>
-  </si>
-  <si>
-    <t>Eau</t>
-  </si>
-  <si>
     <t>Bière</t>
   </si>
   <si>
-    <t>Diluant_Potion</t>
-  </si>
-  <si>
     <t>Température_Potion</t>
   </si>
   <si>
@@ -505,9 +495,6 @@
     <t>Quantité_P_I</t>
   </si>
   <si>
-    <t>Unité_P_I</t>
-  </si>
-  <si>
     <t>ID_Unite</t>
   </si>
   <si>
@@ -527,6 +514,48 @@
   </si>
   <si>
     <t>Once</t>
+  </si>
+  <si>
+    <t>Branches de sauge maléfiques</t>
+  </si>
+  <si>
+    <t>Ongles de Lutin</t>
+  </si>
+  <si>
+    <t>Duree</t>
+  </si>
+  <si>
+    <t>Plumes de fenix</t>
+  </si>
+  <si>
+    <t>Cheveux de sorcière</t>
+  </si>
+  <si>
+    <t>ID_Diluant</t>
+  </si>
+  <si>
+    <t>Nom_Diluant</t>
+  </si>
+  <si>
+    <t>eau</t>
+  </si>
+  <si>
+    <t>jus de fruit</t>
+  </si>
+  <si>
+    <t>vin</t>
+  </si>
+  <si>
+    <t>Potion de force de taur2</t>
+  </si>
+  <si>
+    <t>Potion de p2 d'écorce</t>
+  </si>
+  <si>
+    <t>ID_Unité</t>
+  </si>
+  <si>
+    <t>Quantité_O_I</t>
   </si>
 </sst>
 </file>
@@ -542,12 +571,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -562,8 +597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -989,33 +1025,155 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>47</v>
@@ -1038,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>77</v>
@@ -1053,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1068,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>81</v>
@@ -1083,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -1098,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>91</v>
@@ -1113,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>70</v>
@@ -1128,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>54</v>
@@ -1143,7 +1301,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1158,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>58</v>
@@ -1173,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>84</v>
@@ -1188,7 +1346,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>55</v>
@@ -1203,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>28</v>
@@ -1218,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -1233,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -1248,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>54</v>
@@ -1263,7 +1421,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>70</v>
@@ -1278,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1293,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -1308,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>57</v>
@@ -1323,7 +1481,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>96</v>
@@ -1338,7 +1496,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23">
         <v>88</v>
@@ -1353,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>92</v>
@@ -1368,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>26</v>
@@ -1383,7 +1541,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>61</v>
@@ -1398,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C27">
         <v>96</v>
@@ -1413,7 +1571,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C28">
         <v>67</v>
@@ -1428,7 +1586,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29">
         <v>71</v>
@@ -1443,7 +1601,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>11</v>
@@ -1458,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C31">
         <v>77</v>
@@ -1488,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>16</v>
@@ -1503,7 +1661,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C34">
         <v>46</v>
@@ -1518,7 +1676,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35">
         <v>50</v>
@@ -1533,7 +1691,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36">
         <v>82</v>
@@ -1638,7 +1796,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43">
         <v>76</v>
@@ -1653,7 +1811,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C44">
         <v>40</v>
@@ -1668,7 +1826,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C45">
         <v>67</v>
@@ -1683,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C46">
         <v>72</v>
@@ -1698,7 +1856,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C47">
         <v>26</v>
@@ -1713,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -1728,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49">
         <v>98</v>
@@ -1743,7 +1901,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C50">
         <v>14</v>
@@ -1758,7 +1916,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C51">
         <v>56</v>
@@ -1773,7 +1931,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C52">
         <v>21</v>
@@ -1788,7 +1946,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C53">
         <v>67</v>
@@ -1803,7 +1961,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C54">
         <v>50</v>
@@ -1818,7 +1976,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C55">
         <v>77</v>
@@ -1833,7 +1991,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>63</v>
@@ -1848,7 +2006,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57">
         <v>95</v>
@@ -1863,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C58">
         <v>33</v>
@@ -1878,7 +2036,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C59">
         <v>13</v>
@@ -1893,7 +2051,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C60">
         <v>66</v>
@@ -1908,7 +2066,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C61">
         <v>91</v>
@@ -1923,7 +2081,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C62">
         <v>56</v>
@@ -1938,7 +2096,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63">
         <v>40</v>
@@ -1953,7 +2111,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64">
         <v>96</v>
@@ -1968,7 +2126,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C65">
         <v>97</v>
@@ -1983,7 +2141,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C66">
         <v>29</v>
@@ -1998,7 +2156,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C67">
         <v>68</v>
@@ -2009,11 +2167,11 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A71" si="1">1+A67</f>
+        <f t="shared" ref="A68:A75" si="1">1+A67</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -2028,7 +2186,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69">
         <v>87</v>
@@ -2043,7 +2201,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C70">
         <v>74</v>
@@ -2058,13 +2216,73 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C71">
         <v>82</v>
       </c>
       <c r="D71">
         <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="1">
+        <v>59</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73">
+        <v>64</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74">
+        <v>45</v>
+      </c>
+      <c r="D74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +3030,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,10 +3051,10 @@
         <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
         <v>20</v>
@@ -2852,8 +3070,8 @@
       <c r="C2">
         <v>474</v>
       </c>
-      <c r="D2" t="s">
-        <v>77</v>
+      <c r="D2">
+        <v>4</v>
       </c>
       <c r="E2">
         <v>93</v>
@@ -2873,8 +3091,8 @@
       <c r="C3">
         <v>799</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -2894,8 +3112,8 @@
       <c r="C4">
         <v>481</v>
       </c>
-      <c r="D4" t="s">
-        <v>79</v>
+      <c r="D4">
+        <v>2</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -2915,8 +3133,8 @@
       <c r="C5">
         <v>345</v>
       </c>
-      <c r="D5" t="s">
-        <v>78</v>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5">
         <v>67</v>
@@ -2936,8 +3154,8 @@
       <c r="C6">
         <v>658</v>
       </c>
-      <c r="D6" t="s">
-        <v>79</v>
+      <c r="D6">
+        <v>2</v>
       </c>
       <c r="E6">
         <v>86</v>
@@ -2957,8 +3175,8 @@
       <c r="C7">
         <v>975</v>
       </c>
-      <c r="D7" t="s">
-        <v>77</v>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7">
         <v>77</v>
@@ -2978,8 +3196,8 @@
       <c r="C8">
         <v>940</v>
       </c>
-      <c r="D8" t="s">
-        <v>78</v>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8">
         <v>86</v>
@@ -2999,8 +3217,8 @@
       <c r="C9">
         <v>376</v>
       </c>
-      <c r="D9" t="s">
-        <v>80</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>78</v>
@@ -3020,8 +3238,8 @@
       <c r="C10">
         <v>124</v>
       </c>
-      <c r="D10" t="s">
-        <v>78</v>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10">
         <v>87</v>
@@ -3041,8 +3259,8 @@
       <c r="C11">
         <v>436</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="E11">
         <v>67</v>
@@ -3062,8 +3280,8 @@
       <c r="C12">
         <v>963</v>
       </c>
-      <c r="D12" t="s">
-        <v>77</v>
+      <c r="D12">
+        <v>4</v>
       </c>
       <c r="E12">
         <v>87</v>
@@ -3083,8 +3301,8 @@
       <c r="C13">
         <v>525</v>
       </c>
-      <c r="D13" t="s">
-        <v>77</v>
+      <c r="D13">
+        <v>4</v>
       </c>
       <c r="E13">
         <v>79</v>
@@ -3104,8 +3322,8 @@
       <c r="C14">
         <v>440</v>
       </c>
-      <c r="D14" t="s">
-        <v>80</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>76</v>
@@ -3120,13 +3338,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="C15">
         <v>238</v>
       </c>
-      <c r="D15" t="s">
-        <v>78</v>
+      <c r="D15">
+        <v>3</v>
       </c>
       <c r="E15">
         <v>86</v>
@@ -3146,8 +3364,8 @@
       <c r="C16">
         <v>149</v>
       </c>
-      <c r="D16" t="s">
-        <v>78</v>
+      <c r="D16">
+        <v>3</v>
       </c>
       <c r="E16">
         <v>58</v>
@@ -3167,8 +3385,8 @@
       <c r="C17">
         <v>869</v>
       </c>
-      <c r="D17" t="s">
-        <v>78</v>
+      <c r="D17">
+        <v>3</v>
       </c>
       <c r="E17">
         <v>86</v>
@@ -3188,8 +3406,8 @@
       <c r="C18">
         <v>326</v>
       </c>
-      <c r="D18" t="s">
-        <v>78</v>
+      <c r="D18">
+        <v>3</v>
       </c>
       <c r="E18">
         <v>71</v>
@@ -3209,8 +3427,8 @@
       <c r="C19">
         <v>634</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>83</v>
@@ -3230,8 +3448,8 @@
       <c r="C20">
         <v>473</v>
       </c>
-      <c r="D20" t="s">
-        <v>79</v>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20">
         <v>88</v>
@@ -3246,13 +3464,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="C21">
         <v>236</v>
       </c>
-      <c r="D21" t="s">
-        <v>77</v>
+      <c r="D21">
+        <v>4</v>
       </c>
       <c r="E21">
         <v>71</v>
@@ -3272,8 +3490,8 @@
       <c r="C22">
         <v>681</v>
       </c>
-      <c r="D22" t="s">
-        <v>77</v>
+      <c r="D22">
+        <v>4</v>
       </c>
       <c r="E22">
         <v>66</v>
@@ -3284,7 +3502,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f>1+A22</f>
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -3293,8 +3511,8 @@
       <c r="C23">
         <v>210</v>
       </c>
-      <c r="D23" t="s">
-        <v>80</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>86</v>
@@ -3314,8 +3532,8 @@
       <c r="C24">
         <v>145</v>
       </c>
-      <c r="D24" t="s">
-        <v>80</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>86</v>
@@ -3335,8 +3553,8 @@
       <c r="C25">
         <v>936</v>
       </c>
-      <c r="D25" t="s">
-        <v>80</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3356,8 +3574,8 @@
       <c r="C26">
         <v>760</v>
       </c>
-      <c r="D26" t="s">
-        <v>77</v>
+      <c r="D26">
+        <v>4</v>
       </c>
       <c r="E26">
         <v>93</v>
@@ -3377,8 +3595,8 @@
       <c r="C27">
         <v>220</v>
       </c>
-      <c r="D27" t="s">
-        <v>77</v>
+      <c r="D27">
+        <v>4</v>
       </c>
       <c r="E27">
         <v>83</v>
@@ -3398,8 +3616,8 @@
       <c r="C28">
         <v>533</v>
       </c>
-      <c r="D28" t="s">
-        <v>77</v>
+      <c r="D28">
+        <v>4</v>
       </c>
       <c r="E28">
         <v>89</v>
@@ -3419,8 +3637,8 @@
       <c r="C29">
         <v>430</v>
       </c>
-      <c r="D29" t="s">
-        <v>78</v>
+      <c r="D29">
+        <v>3</v>
       </c>
       <c r="E29">
         <v>79</v>
@@ -3440,8 +3658,8 @@
       <c r="C30">
         <v>113</v>
       </c>
-      <c r="D30" t="s">
-        <v>77</v>
+      <c r="D30">
+        <v>4</v>
       </c>
       <c r="E30">
         <v>81</v>
@@ -3461,8 +3679,8 @@
       <c r="C31">
         <v>805</v>
       </c>
-      <c r="D31" t="s">
-        <v>77</v>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31">
         <v>81</v>
@@ -3482,8 +3700,8 @@
       <c r="C32">
         <v>716</v>
       </c>
-      <c r="D32" t="s">
-        <v>80</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>76</v>
@@ -3503,8 +3721,8 @@
       <c r="C33">
         <v>821</v>
       </c>
-      <c r="D33" t="s">
-        <v>78</v>
+      <c r="D33">
+        <v>3</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -3524,8 +3742,8 @@
       <c r="C34">
         <v>991</v>
       </c>
-      <c r="D34" t="s">
-        <v>79</v>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34">
         <v>55</v>
@@ -3545,8 +3763,8 @@
       <c r="C35">
         <v>832</v>
       </c>
-      <c r="D35" t="s">
-        <v>80</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>51</v>
@@ -3566,8 +3784,8 @@
       <c r="C36">
         <v>764</v>
       </c>
-      <c r="D36" t="s">
-        <v>80</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>88</v>
@@ -3587,8 +3805,8 @@
       <c r="C37">
         <v>652</v>
       </c>
-      <c r="D37" t="s">
-        <v>78</v>
+      <c r="D37">
+        <v>3</v>
       </c>
       <c r="E37">
         <v>69</v>
@@ -3608,8 +3826,8 @@
       <c r="C38">
         <v>552</v>
       </c>
-      <c r="D38" t="s">
-        <v>78</v>
+      <c r="D38">
+        <v>3</v>
       </c>
       <c r="E38">
         <v>85</v>
@@ -3629,8 +3847,8 @@
       <c r="C39">
         <v>436</v>
       </c>
-      <c r="D39" t="s">
-        <v>78</v>
+      <c r="D39">
+        <v>3</v>
       </c>
       <c r="E39">
         <v>99</v>
@@ -3650,8 +3868,8 @@
       <c r="C40">
         <v>445</v>
       </c>
-      <c r="D40" t="s">
-        <v>77</v>
+      <c r="D40">
+        <v>4</v>
       </c>
       <c r="E40">
         <v>91</v>
@@ -3671,8 +3889,8 @@
       <c r="C41">
         <v>473</v>
       </c>
-      <c r="D41" t="s">
-        <v>78</v>
+      <c r="D41">
+        <v>3</v>
       </c>
       <c r="E41">
         <v>68</v>
@@ -3692,8 +3910,8 @@
       <c r="C42">
         <v>335</v>
       </c>
-      <c r="D42" t="s">
-        <v>77</v>
+      <c r="D42">
+        <v>4</v>
       </c>
       <c r="E42">
         <v>81</v>
@@ -3713,8 +3931,8 @@
       <c r="C43">
         <v>331</v>
       </c>
-      <c r="D43" t="s">
-        <v>80</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
         <v>91</v>
@@ -3734,8 +3952,8 @@
       <c r="C44">
         <v>645</v>
       </c>
-      <c r="D44" t="s">
-        <v>78</v>
+      <c r="D44">
+        <v>3</v>
       </c>
       <c r="E44">
         <v>77</v>
@@ -3751,47 +3969,52 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3801,60 +4024,2256 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>164</v>
+      <c r="E6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>62</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>63</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>71</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>69</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>26</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>26</v>
+      </c>
+      <c r="B81">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>59</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>48</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>51</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>32</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>33</v>
+      </c>
+      <c r="B101">
+        <v>23</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>33</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>34</v>
+      </c>
+      <c r="B105">
+        <v>43</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>35</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>58</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>36</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>36</v>
+      </c>
+      <c r="B110">
+        <v>74</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>36</v>
+      </c>
+      <c r="B111">
+        <v>67</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>37</v>
+      </c>
+      <c r="B112">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>37</v>
+      </c>
+      <c r="B113">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>37</v>
+      </c>
+      <c r="B114">
+        <v>55</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>38</v>
+      </c>
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>45</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>39</v>
+      </c>
+      <c r="B120">
+        <v>58</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>40</v>
+      </c>
+      <c r="B123">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126">
+        <v>53</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>42</v>
+      </c>
+      <c r="B128">
+        <v>42</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>42</v>
+      </c>
+      <c r="B129">
+        <v>46</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>43</v>
+      </c>
+      <c r="B131">
+        <v>41</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>43</v>
+      </c>
+      <c r="B132">
+        <v>56</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3864,56 +6283,1864 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
+      <c r="B2">
+        <v>17</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>41</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>49</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>49</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60">
         <v>30</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>21</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>62</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>23</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>63</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>71</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>64</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>69</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>26</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>26</v>
+      </c>
+      <c r="B81">
+        <v>47</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>63</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>59</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>29</v>
+      </c>
+      <c r="B90">
+        <v>48</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>23</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>30</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>51</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>32</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>33</v>
+      </c>
+      <c r="B101">
+        <v>23</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>33</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>34</v>
+      </c>
+      <c r="B105">
+        <v>43</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>35</v>
+      </c>
+      <c r="B107">
+        <v>55</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>58</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>36</v>
+      </c>
+      <c r="B109">
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>36</v>
+      </c>
+      <c r="B110">
+        <v>74</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>36</v>
+      </c>
+      <c r="B111">
+        <v>67</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>37</v>
+      </c>
+      <c r="B112">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>37</v>
+      </c>
+      <c r="B113">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>37</v>
+      </c>
+      <c r="B114">
+        <v>55</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>38</v>
+      </c>
+      <c r="B116">
+        <v>35</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>45</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>39</v>
+      </c>
+      <c r="B120">
+        <v>58</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>40</v>
+      </c>
+      <c r="B122">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>40</v>
+      </c>
+      <c r="B123">
+        <v>55</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125">
+        <v>42</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>41</v>
+      </c>
+      <c r="B126">
+        <v>53</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>42</v>
+      </c>
+      <c r="B128">
+        <v>42</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>42</v>
+      </c>
+      <c r="B129">
+        <v>46</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>43</v>
+      </c>
+      <c r="B131">
+        <v>41</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>43</v>
+      </c>
+      <c r="B132">
+        <v>56</v>
+      </c>
+      <c r="C132">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
